--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_160.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_160.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d224183-Reviews-Courtyard_Los_Angeles_Pasadena_Old_Town-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>888</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Old-Pasadena.h518440.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_160.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_160.xlsx
@@ -12908,7 +12908,7 @@
         <v>40024</v>
       </c>
       <c r="B2" t="n">
-        <v>132952</v>
+        <v>163764</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12979,7 +12979,7 @@
         <v>40024</v>
       </c>
       <c r="B3" t="n">
-        <v>132953</v>
+        <v>163765</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -13048,7 +13048,7 @@
         <v>40024</v>
       </c>
       <c r="B4" t="n">
-        <v>132954</v>
+        <v>163766</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -13113,7 +13113,7 @@
         <v>40024</v>
       </c>
       <c r="B5" t="n">
-        <v>132955</v>
+        <v>163767</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -13182,7 +13182,7 @@
         <v>40024</v>
       </c>
       <c r="B6" t="n">
-        <v>132956</v>
+        <v>163768</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -13253,7 +13253,7 @@
         <v>40024</v>
       </c>
       <c r="B7" t="n">
-        <v>132957</v>
+        <v>163769</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -13318,7 +13318,7 @@
         <v>40024</v>
       </c>
       <c r="B8" t="n">
-        <v>132958</v>
+        <v>163770</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -13454,7 +13454,7 @@
         <v>40024</v>
       </c>
       <c r="B10" t="n">
-        <v>132959</v>
+        <v>163771</v>
       </c>
       <c r="C10" t="s">
         <v>121</v>
@@ -13584,7 +13584,7 @@
         <v>40024</v>
       </c>
       <c r="B12" t="n">
-        <v>132960</v>
+        <v>163772</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
@@ -13655,7 +13655,7 @@
         <v>40024</v>
       </c>
       <c r="B13" t="n">
-        <v>132961</v>
+        <v>163773</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -13720,7 +13720,7 @@
         <v>40024</v>
       </c>
       <c r="B14" t="n">
-        <v>132962</v>
+        <v>163774</v>
       </c>
       <c r="C14" t="s">
         <v>157</v>
@@ -13789,7 +13789,7 @@
         <v>40024</v>
       </c>
       <c r="B15" t="n">
-        <v>132963</v>
+        <v>163775</v>
       </c>
       <c r="C15" t="s">
         <v>166</v>
@@ -13854,7 +13854,7 @@
         <v>40024</v>
       </c>
       <c r="B16" t="n">
-        <v>132964</v>
+        <v>163776</v>
       </c>
       <c r="C16" t="s">
         <v>175</v>
@@ -13925,7 +13925,7 @@
         <v>40024</v>
       </c>
       <c r="B17" t="n">
-        <v>132965</v>
+        <v>163777</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
@@ -14055,7 +14055,7 @@
         <v>40024</v>
       </c>
       <c r="B19" t="n">
-        <v>132966</v>
+        <v>163778</v>
       </c>
       <c r="C19" t="s">
         <v>203</v>
@@ -14189,7 +14189,7 @@
         <v>40024</v>
       </c>
       <c r="B21" t="n">
-        <v>132967</v>
+        <v>163779</v>
       </c>
       <c r="C21" t="s">
         <v>219</v>
@@ -14254,7 +14254,7 @@
         <v>40024</v>
       </c>
       <c r="B22" t="n">
-        <v>132968</v>
+        <v>163780</v>
       </c>
       <c r="C22" t="s">
         <v>228</v>
@@ -14325,7 +14325,7 @@
         <v>40024</v>
       </c>
       <c r="B23" t="n">
-        <v>132969</v>
+        <v>163781</v>
       </c>
       <c r="C23" t="s">
         <v>237</v>
@@ -14526,7 +14526,7 @@
         <v>40024</v>
       </c>
       <c r="B26" t="n">
-        <v>132970</v>
+        <v>163782</v>
       </c>
       <c r="C26" t="s">
         <v>262</v>
@@ -14660,7 +14660,7 @@
         <v>40024</v>
       </c>
       <c r="B28" t="n">
-        <v>132971</v>
+        <v>163783</v>
       </c>
       <c r="C28" t="s">
         <v>280</v>
@@ -14725,7 +14725,7 @@
         <v>40024</v>
       </c>
       <c r="B29" t="n">
-        <v>132972</v>
+        <v>163784</v>
       </c>
       <c r="C29" t="s">
         <v>287</v>
@@ -14790,7 +14790,7 @@
         <v>40024</v>
       </c>
       <c r="B30" t="n">
-        <v>132973</v>
+        <v>163785</v>
       </c>
       <c r="C30" t="s">
         <v>296</v>
@@ -14855,7 +14855,7 @@
         <v>40024</v>
       </c>
       <c r="B31" t="n">
-        <v>132974</v>
+        <v>163786</v>
       </c>
       <c r="C31" t="s">
         <v>306</v>
@@ -14920,7 +14920,7 @@
         <v>40024</v>
       </c>
       <c r="B32" t="n">
-        <v>132975</v>
+        <v>163787</v>
       </c>
       <c r="C32" t="s">
         <v>316</v>
@@ -14989,7 +14989,7 @@
         <v>40024</v>
       </c>
       <c r="B33" t="n">
-        <v>132976</v>
+        <v>163788</v>
       </c>
       <c r="C33" t="s">
         <v>325</v>
@@ -15054,7 +15054,7 @@
         <v>40024</v>
       </c>
       <c r="B34" t="n">
-        <v>132977</v>
+        <v>163789</v>
       </c>
       <c r="C34" t="s">
         <v>334</v>
@@ -15123,7 +15123,7 @@
         <v>40024</v>
       </c>
       <c r="B35" t="n">
-        <v>132978</v>
+        <v>163790</v>
       </c>
       <c r="C35" t="s">
         <v>344</v>
@@ -15257,7 +15257,7 @@
         <v>40024</v>
       </c>
       <c r="B37" t="n">
-        <v>132979</v>
+        <v>163791</v>
       </c>
       <c r="C37" t="s">
         <v>362</v>
@@ -15470,7 +15470,7 @@
         <v>40024</v>
       </c>
       <c r="B40" t="n">
-        <v>132980</v>
+        <v>163792</v>
       </c>
       <c r="C40" t="s">
         <v>387</v>
@@ -15535,7 +15535,7 @@
         <v>40024</v>
       </c>
       <c r="B41" t="n">
-        <v>132981</v>
+        <v>163793</v>
       </c>
       <c r="C41" t="s">
         <v>396</v>
@@ -15600,7 +15600,7 @@
         <v>40024</v>
       </c>
       <c r="B42" t="n">
-        <v>132982</v>
+        <v>163794</v>
       </c>
       <c r="C42" t="s">
         <v>406</v>
@@ -15805,7 +15805,7 @@
         <v>40024</v>
       </c>
       <c r="B45" t="n">
-        <v>132983</v>
+        <v>163795</v>
       </c>
       <c r="C45" t="s">
         <v>432</v>
@@ -16010,7 +16010,7 @@
         <v>40024</v>
       </c>
       <c r="B48" t="n">
-        <v>132984</v>
+        <v>163796</v>
       </c>
       <c r="C48" t="s">
         <v>460</v>
@@ -16205,7 +16205,7 @@
         <v>40024</v>
       </c>
       <c r="B51" t="n">
-        <v>132985</v>
+        <v>163797</v>
       </c>
       <c r="C51" t="s">
         <v>486</v>
@@ -16276,7 +16276,7 @@
         <v>40024</v>
       </c>
       <c r="B52" t="n">
-        <v>132986</v>
+        <v>163798</v>
       </c>
       <c r="C52" t="s">
         <v>496</v>
@@ -16406,7 +16406,7 @@
         <v>40024</v>
       </c>
       <c r="B54" t="n">
-        <v>132987</v>
+        <v>163799</v>
       </c>
       <c r="C54" t="s">
         <v>512</v>
@@ -16471,7 +16471,7 @@
         <v>40024</v>
       </c>
       <c r="B55" t="n">
-        <v>132988</v>
+        <v>163800</v>
       </c>
       <c r="C55" t="s">
         <v>522</v>
@@ -16536,7 +16536,7 @@
         <v>40024</v>
       </c>
       <c r="B56" t="n">
-        <v>132989</v>
+        <v>163801</v>
       </c>
       <c r="C56" t="s">
         <v>531</v>
@@ -16601,7 +16601,7 @@
         <v>40024</v>
       </c>
       <c r="B57" t="n">
-        <v>132990</v>
+        <v>163802</v>
       </c>
       <c r="C57" t="s">
         <v>540</v>
@@ -16948,7 +16948,7 @@
         <v>40024</v>
       </c>
       <c r="B62" t="n">
-        <v>132991</v>
+        <v>163803</v>
       </c>
       <c r="C62" t="s">
         <v>582</v>
@@ -17082,7 +17082,7 @@
         <v>40024</v>
       </c>
       <c r="B64" t="n">
-        <v>132992</v>
+        <v>163804</v>
       </c>
       <c r="C64" t="s">
         <v>600</v>
@@ -17348,7 +17348,7 @@
         <v>40024</v>
       </c>
       <c r="B68" t="n">
-        <v>132993</v>
+        <v>163805</v>
       </c>
       <c r="C68" t="s">
         <v>633</v>
@@ -17417,7 +17417,7 @@
         <v>40024</v>
       </c>
       <c r="B69" t="n">
-        <v>132994</v>
+        <v>163806</v>
       </c>
       <c r="C69" t="s">
         <v>642</v>
@@ -17547,7 +17547,7 @@
         <v>40024</v>
       </c>
       <c r="B71" t="n">
-        <v>132995</v>
+        <v>163807</v>
       </c>
       <c r="C71" t="s">
         <v>655</v>
@@ -17823,7 +17823,7 @@
         <v>40024</v>
       </c>
       <c r="B75" t="n">
-        <v>132996</v>
+        <v>163808</v>
       </c>
       <c r="C75" t="s">
         <v>692</v>
@@ -17894,7 +17894,7 @@
         <v>40024</v>
       </c>
       <c r="B76" t="n">
-        <v>132997</v>
+        <v>163809</v>
       </c>
       <c r="C76" t="s">
         <v>699</v>
@@ -17965,7 +17965,7 @@
         <v>40024</v>
       </c>
       <c r="B77" t="n">
-        <v>132998</v>
+        <v>163810</v>
       </c>
       <c r="C77" t="s">
         <v>708</v>
@@ -18036,7 +18036,7 @@
         <v>40024</v>
       </c>
       <c r="B78" t="n">
-        <v>132999</v>
+        <v>163811</v>
       </c>
       <c r="C78" t="s">
         <v>717</v>
@@ -18107,7 +18107,7 @@
         <v>40024</v>
       </c>
       <c r="B79" t="n">
-        <v>133000</v>
+        <v>163812</v>
       </c>
       <c r="C79" t="s">
         <v>726</v>
@@ -18176,7 +18176,7 @@
         <v>40024</v>
       </c>
       <c r="B80" t="n">
-        <v>133001</v>
+        <v>163813</v>
       </c>
       <c r="C80" t="s">
         <v>736</v>
@@ -18312,7 +18312,7 @@
         <v>40024</v>
       </c>
       <c r="B82" t="n">
-        <v>133002</v>
+        <v>163814</v>
       </c>
       <c r="C82" t="s">
         <v>752</v>
@@ -18383,7 +18383,7 @@
         <v>40024</v>
       </c>
       <c r="B83" t="n">
-        <v>133003</v>
+        <v>163815</v>
       </c>
       <c r="C83" t="s">
         <v>761</v>
@@ -18448,7 +18448,7 @@
         <v>40024</v>
       </c>
       <c r="B84" t="n">
-        <v>133004</v>
+        <v>163816</v>
       </c>
       <c r="C84" t="s">
         <v>771</v>
@@ -18513,7 +18513,7 @@
         <v>40024</v>
       </c>
       <c r="B85" t="n">
-        <v>133005</v>
+        <v>133009</v>
       </c>
       <c r="C85" t="s">
         <v>780</v>
@@ -18584,7 +18584,7 @@
         <v>40024</v>
       </c>
       <c r="B86" t="n">
-        <v>133006</v>
+        <v>163817</v>
       </c>
       <c r="C86" t="s">
         <v>788</v>
@@ -18653,7 +18653,7 @@
         <v>40024</v>
       </c>
       <c r="B87" t="n">
-        <v>133007</v>
+        <v>163818</v>
       </c>
       <c r="C87" t="s">
         <v>795</v>
@@ -18724,7 +18724,7 @@
         <v>40024</v>
       </c>
       <c r="B88" t="n">
-        <v>133008</v>
+        <v>163819</v>
       </c>
       <c r="C88" t="s">
         <v>804</v>
@@ -18795,7 +18795,7 @@
         <v>40024</v>
       </c>
       <c r="B89" t="n">
-        <v>133009</v>
+        <v>163820</v>
       </c>
       <c r="C89" t="s">
         <v>811</v>
@@ -18935,7 +18935,7 @@
         <v>40024</v>
       </c>
       <c r="B91" t="n">
-        <v>133010</v>
+        <v>163821</v>
       </c>
       <c r="C91" t="s">
         <v>826</v>
@@ -19075,7 +19075,7 @@
         <v>40024</v>
       </c>
       <c r="B93" t="n">
-        <v>133011</v>
+        <v>163822</v>
       </c>
       <c r="C93" t="s">
         <v>844</v>
@@ -19140,7 +19140,7 @@
         <v>40024</v>
       </c>
       <c r="B94" t="n">
-        <v>133012</v>
+        <v>163823</v>
       </c>
       <c r="C94" t="s">
         <v>853</v>
@@ -19209,7 +19209,7 @@
         <v>40024</v>
       </c>
       <c r="B95" t="n">
-        <v>133013</v>
+        <v>163824</v>
       </c>
       <c r="C95" t="s">
         <v>862</v>
@@ -19278,7 +19278,7 @@
         <v>40024</v>
       </c>
       <c r="B96" t="n">
-        <v>133014</v>
+        <v>163825</v>
       </c>
       <c r="C96" t="s">
         <v>871</v>
@@ -19408,7 +19408,7 @@
         <v>40024</v>
       </c>
       <c r="B98" t="n">
-        <v>133015</v>
+        <v>163826</v>
       </c>
       <c r="C98" t="s">
         <v>887</v>
@@ -19473,7 +19473,7 @@
         <v>40024</v>
       </c>
       <c r="B99" t="n">
-        <v>133016</v>
+        <v>163827</v>
       </c>
       <c r="C99" t="s">
         <v>896</v>
@@ -19544,7 +19544,7 @@
         <v>40024</v>
       </c>
       <c r="B100" t="n">
-        <v>133017</v>
+        <v>163828</v>
       </c>
       <c r="C100" t="s">
         <v>905</v>
@@ -19615,7 +19615,7 @@
         <v>40024</v>
       </c>
       <c r="B101" t="n">
-        <v>133018</v>
+        <v>163829</v>
       </c>
       <c r="C101" t="s">
         <v>914</v>
@@ -19686,7 +19686,7 @@
         <v>40024</v>
       </c>
       <c r="B102" t="n">
-        <v>133019</v>
+        <v>163830</v>
       </c>
       <c r="C102" t="s">
         <v>924</v>
@@ -19751,7 +19751,7 @@
         <v>40024</v>
       </c>
       <c r="B103" t="n">
-        <v>133020</v>
+        <v>163831</v>
       </c>
       <c r="C103" t="s">
         <v>931</v>
@@ -19822,7 +19822,7 @@
         <v>40024</v>
       </c>
       <c r="B104" t="n">
-        <v>133021</v>
+        <v>163832</v>
       </c>
       <c r="C104" t="s">
         <v>940</v>
@@ -19893,7 +19893,7 @@
         <v>40024</v>
       </c>
       <c r="B105" t="n">
-        <v>133022</v>
+        <v>163833</v>
       </c>
       <c r="C105" t="s">
         <v>949</v>
@@ -19964,7 +19964,7 @@
         <v>40024</v>
       </c>
       <c r="B106" t="n">
-        <v>133023</v>
+        <v>163834</v>
       </c>
       <c r="C106" t="s">
         <v>958</v>
@@ -20104,7 +20104,7 @@
         <v>40024</v>
       </c>
       <c r="B108" t="n">
-        <v>133024</v>
+        <v>163835</v>
       </c>
       <c r="C108" t="s">
         <v>976</v>
@@ -20175,7 +20175,7 @@
         <v>40024</v>
       </c>
       <c r="B109" t="n">
-        <v>133025</v>
+        <v>163836</v>
       </c>
       <c r="C109" t="s">
         <v>985</v>
@@ -20246,7 +20246,7 @@
         <v>40024</v>
       </c>
       <c r="B110" t="n">
-        <v>133026</v>
+        <v>163837</v>
       </c>
       <c r="C110" t="s">
         <v>993</v>
@@ -20510,7 +20510,7 @@
         <v>40024</v>
       </c>
       <c r="B114" t="n">
-        <v>133027</v>
+        <v>163838</v>
       </c>
       <c r="C114" t="s">
         <v>1026</v>
@@ -20581,7 +20581,7 @@
         <v>40024</v>
       </c>
       <c r="B115" t="n">
-        <v>133028</v>
+        <v>163839</v>
       </c>
       <c r="C115" t="s">
         <v>1035</v>
@@ -20650,7 +20650,7 @@
         <v>40024</v>
       </c>
       <c r="B116" t="n">
-        <v>133029</v>
+        <v>163840</v>
       </c>
       <c r="C116" t="s">
         <v>1044</v>
@@ -20790,7 +20790,7 @@
         <v>40024</v>
       </c>
       <c r="B118" t="n">
-        <v>133030</v>
+        <v>163841</v>
       </c>
       <c r="C118" t="s">
         <v>1061</v>
@@ -20851,7 +20851,7 @@
         <v>40024</v>
       </c>
       <c r="B119" t="n">
-        <v>133031</v>
+        <v>163842</v>
       </c>
       <c r="C119" t="s">
         <v>1070</v>
@@ -20991,7 +20991,7 @@
         <v>40024</v>
       </c>
       <c r="B121" t="n">
-        <v>133032</v>
+        <v>163843</v>
       </c>
       <c r="C121" t="s">
         <v>1088</v>
@@ -21133,7 +21133,7 @@
         <v>40024</v>
       </c>
       <c r="B123" t="n">
-        <v>133033</v>
+        <v>163844</v>
       </c>
       <c r="C123" t="s">
         <v>1103</v>
@@ -21204,7 +21204,7 @@
         <v>40024</v>
       </c>
       <c r="B124" t="n">
-        <v>133034</v>
+        <v>163845</v>
       </c>
       <c r="C124" t="s">
         <v>1112</v>
@@ -21273,7 +21273,7 @@
         <v>40024</v>
       </c>
       <c r="B125" t="n">
-        <v>133035</v>
+        <v>163846</v>
       </c>
       <c r="C125" t="s">
         <v>1118</v>
@@ -21342,7 +21342,7 @@
         <v>40024</v>
       </c>
       <c r="B126" t="n">
-        <v>133036</v>
+        <v>163847</v>
       </c>
       <c r="C126" t="s">
         <v>1127</v>
@@ -21413,7 +21413,7 @@
         <v>40024</v>
       </c>
       <c r="B127" t="n">
-        <v>133037</v>
+        <v>163848</v>
       </c>
       <c r="C127" t="s">
         <v>1134</v>
@@ -21474,7 +21474,7 @@
         <v>40024</v>
       </c>
       <c r="B128" t="n">
-        <v>133038</v>
+        <v>163849</v>
       </c>
       <c r="C128" t="s">
         <v>1143</v>
@@ -21543,7 +21543,7 @@
         <v>40024</v>
       </c>
       <c r="B129" t="n">
-        <v>133039</v>
+        <v>163850</v>
       </c>
       <c r="C129" t="s">
         <v>1153</v>
@@ -21608,7 +21608,7 @@
         <v>40024</v>
       </c>
       <c r="B130" t="n">
-        <v>133040</v>
+        <v>163851</v>
       </c>
       <c r="C130" t="s">
         <v>1162</v>
@@ -21673,7 +21673,7 @@
         <v>40024</v>
       </c>
       <c r="B131" t="n">
-        <v>133041</v>
+        <v>163852</v>
       </c>
       <c r="C131" t="s">
         <v>1169</v>
@@ -21809,7 +21809,7 @@
         <v>40024</v>
       </c>
       <c r="B133" t="n">
-        <v>133042</v>
+        <v>163853</v>
       </c>
       <c r="C133" t="s">
         <v>1188</v>
@@ -21880,7 +21880,7 @@
         <v>40024</v>
       </c>
       <c r="B134" t="n">
-        <v>133043</v>
+        <v>163854</v>
       </c>
       <c r="C134" t="s">
         <v>1198</v>
@@ -21949,7 +21949,7 @@
         <v>40024</v>
       </c>
       <c r="B135" t="n">
-        <v>133044</v>
+        <v>163855</v>
       </c>
       <c r="C135" t="s">
         <v>1207</v>
@@ -22020,7 +22020,7 @@
         <v>40024</v>
       </c>
       <c r="B136" t="n">
-        <v>133045</v>
+        <v>163856</v>
       </c>
       <c r="C136" t="s">
         <v>1216</v>
@@ -22160,7 +22160,7 @@
         <v>40024</v>
       </c>
       <c r="B138" t="n">
-        <v>133046</v>
+        <v>163857</v>
       </c>
       <c r="C138" t="s">
         <v>1232</v>
@@ -22231,7 +22231,7 @@
         <v>40024</v>
       </c>
       <c r="B139" t="n">
-        <v>133047</v>
+        <v>163858</v>
       </c>
       <c r="C139" t="s">
         <v>1241</v>
@@ -22300,7 +22300,7 @@
         <v>40024</v>
       </c>
       <c r="B140" t="n">
-        <v>133048</v>
+        <v>163859</v>
       </c>
       <c r="C140" t="s">
         <v>1248</v>
@@ -22434,7 +22434,7 @@
         <v>40024</v>
       </c>
       <c r="B142" t="n">
-        <v>133049</v>
+        <v>163860</v>
       </c>
       <c r="C142" t="s">
         <v>1264</v>
@@ -22503,7 +22503,7 @@
         <v>40024</v>
       </c>
       <c r="B143" t="n">
-        <v>133050</v>
+        <v>163861</v>
       </c>
       <c r="C143" t="s">
         <v>1273</v>
@@ -22643,7 +22643,7 @@
         <v>40024</v>
       </c>
       <c r="B145" t="n">
-        <v>133051</v>
+        <v>163862</v>
       </c>
       <c r="C145" t="s">
         <v>1291</v>
@@ -22712,7 +22712,7 @@
         <v>40024</v>
       </c>
       <c r="B146" t="n">
-        <v>133052</v>
+        <v>163863</v>
       </c>
       <c r="C146" t="s">
         <v>1298</v>
@@ -22781,7 +22781,7 @@
         <v>40024</v>
       </c>
       <c r="B147" t="n">
-        <v>133053</v>
+        <v>163864</v>
       </c>
       <c r="C147" t="s">
         <v>1307</v>
@@ -22846,7 +22846,7 @@
         <v>40024</v>
       </c>
       <c r="B148" t="n">
-        <v>133054</v>
+        <v>163865</v>
       </c>
       <c r="C148" t="s">
         <v>1316</v>
@@ -22915,7 +22915,7 @@
         <v>40024</v>
       </c>
       <c r="B149" t="n">
-        <v>133055</v>
+        <v>163866</v>
       </c>
       <c r="C149" t="s">
         <v>1326</v>
@@ -22984,7 +22984,7 @@
         <v>40024</v>
       </c>
       <c r="B150" t="n">
-        <v>133056</v>
+        <v>163867</v>
       </c>
       <c r="C150" t="s">
         <v>1335</v>
@@ -23118,7 +23118,7 @@
         <v>40024</v>
       </c>
       <c r="B152" t="n">
-        <v>133057</v>
+        <v>133094</v>
       </c>
       <c r="C152" t="s">
         <v>1351</v>
@@ -23187,7 +23187,7 @@
         <v>40024</v>
       </c>
       <c r="B153" t="n">
-        <v>133058</v>
+        <v>163868</v>
       </c>
       <c r="C153" t="s">
         <v>1360</v>
@@ -23256,7 +23256,7 @@
         <v>40024</v>
       </c>
       <c r="B154" t="n">
-        <v>133059</v>
+        <v>163869</v>
       </c>
       <c r="C154" t="s">
         <v>1368</v>
@@ -23390,7 +23390,7 @@
         <v>40024</v>
       </c>
       <c r="B156" t="n">
-        <v>133060</v>
+        <v>163870</v>
       </c>
       <c r="C156" t="s">
         <v>1382</v>
@@ -23459,7 +23459,7 @@
         <v>40024</v>
       </c>
       <c r="B157" t="n">
-        <v>133061</v>
+        <v>163871</v>
       </c>
       <c r="C157" t="s">
         <v>1392</v>
@@ -23520,7 +23520,7 @@
         <v>40024</v>
       </c>
       <c r="B158" t="n">
-        <v>133062</v>
+        <v>163872</v>
       </c>
       <c r="C158" t="s">
         <v>1399</v>
@@ -23585,7 +23585,7 @@
         <v>40024</v>
       </c>
       <c r="B159" t="n">
-        <v>133063</v>
+        <v>163873</v>
       </c>
       <c r="C159" t="s">
         <v>1408</v>
@@ -23656,7 +23656,7 @@
         <v>40024</v>
       </c>
       <c r="B160" t="n">
-        <v>133064</v>
+        <v>163874</v>
       </c>
       <c r="C160" t="s">
         <v>1417</v>
@@ -23725,7 +23725,7 @@
         <v>40024</v>
       </c>
       <c r="B161" t="n">
-        <v>133065</v>
+        <v>163875</v>
       </c>
       <c r="C161" t="s">
         <v>1425</v>
@@ -23995,7 +23995,7 @@
         <v>40024</v>
       </c>
       <c r="B165" t="n">
-        <v>133066</v>
+        <v>163876</v>
       </c>
       <c r="C165" t="s">
         <v>1454</v>
@@ -24066,7 +24066,7 @@
         <v>40024</v>
       </c>
       <c r="B166" t="n">
-        <v>133067</v>
+        <v>163877</v>
       </c>
       <c r="C166" t="s">
         <v>1461</v>
@@ -24133,7 +24133,7 @@
         <v>40024</v>
       </c>
       <c r="B167" t="n">
-        <v>133068</v>
+        <v>163878</v>
       </c>
       <c r="C167" t="s">
         <v>1467</v>
@@ -24204,7 +24204,7 @@
         <v>40024</v>
       </c>
       <c r="B168" t="n">
-        <v>133069</v>
+        <v>163879</v>
       </c>
       <c r="C168" t="s">
         <v>1476</v>
@@ -24334,7 +24334,7 @@
         <v>40024</v>
       </c>
       <c r="B170" t="n">
-        <v>133070</v>
+        <v>163880</v>
       </c>
       <c r="C170" t="s">
         <v>1489</v>
@@ -24468,7 +24468,7 @@
         <v>40024</v>
       </c>
       <c r="B172" t="n">
-        <v>133071</v>
+        <v>163881</v>
       </c>
       <c r="C172" t="s">
         <v>1505</v>
@@ -24529,7 +24529,7 @@
         <v>40024</v>
       </c>
       <c r="B173" t="n">
-        <v>133072</v>
+        <v>163882</v>
       </c>
       <c r="C173" t="s">
         <v>1511</v>
@@ -24661,7 +24661,7 @@
         <v>40024</v>
       </c>
       <c r="B175" t="n">
-        <v>133073</v>
+        <v>163883</v>
       </c>
       <c r="C175" t="s">
         <v>1525</v>
@@ -24789,7 +24789,7 @@
         <v>40024</v>
       </c>
       <c r="B177" t="n">
-        <v>133074</v>
+        <v>163884</v>
       </c>
       <c r="C177" t="s">
         <v>1537</v>
@@ -24860,7 +24860,7 @@
         <v>40024</v>
       </c>
       <c r="B178" t="n">
-        <v>133075</v>
+        <v>163885</v>
       </c>
       <c r="C178" t="s">
         <v>1546</v>
@@ -24921,7 +24921,7 @@
         <v>40024</v>
       </c>
       <c r="B179" t="n">
-        <v>133076</v>
+        <v>163886</v>
       </c>
       <c r="C179" t="s">
         <v>1552</v>
@@ -24990,7 +24990,7 @@
         <v>40024</v>
       </c>
       <c r="B180" t="n">
-        <v>133077</v>
+        <v>163887</v>
       </c>
       <c r="C180" t="s">
         <v>1561</v>
@@ -25191,7 +25191,7 @@
         <v>40024</v>
       </c>
       <c r="B183" t="n">
-        <v>133078</v>
+        <v>163888</v>
       </c>
       <c r="C183" t="s">
         <v>1578</v>
@@ -25252,7 +25252,7 @@
         <v>40024</v>
       </c>
       <c r="B184" t="n">
-        <v>133079</v>
+        <v>163889</v>
       </c>
       <c r="C184" t="s">
         <v>1584</v>
@@ -25319,7 +25319,7 @@
         <v>40024</v>
       </c>
       <c r="B185" t="n">
-        <v>133080</v>
+        <v>163890</v>
       </c>
       <c r="C185" t="s">
         <v>1590</v>
@@ -25449,7 +25449,7 @@
         <v>40024</v>
       </c>
       <c r="B187" t="n">
-        <v>133081</v>
+        <v>163891</v>
       </c>
       <c r="C187" t="s">
         <v>1603</v>
@@ -25514,7 +25514,7 @@
         <v>40024</v>
       </c>
       <c r="B188" t="n">
-        <v>133082</v>
+        <v>163892</v>
       </c>
       <c r="C188" t="s">
         <v>1609</v>
@@ -25571,7 +25571,7 @@
         <v>40024</v>
       </c>
       <c r="B189" t="n">
-        <v>133083</v>
+        <v>163893</v>
       </c>
       <c r="C189" t="s">
         <v>1615</v>
@@ -25701,7 +25701,7 @@
         <v>40024</v>
       </c>
       <c r="B191" t="n">
-        <v>133084</v>
+        <v>163894</v>
       </c>
       <c r="C191" t="s">
         <v>1628</v>
@@ -25829,7 +25829,7 @@
         <v>40024</v>
       </c>
       <c r="B193" t="n">
-        <v>133085</v>
+        <v>163895</v>
       </c>
       <c r="C193" t="s">
         <v>1642</v>
@@ -25890,7 +25890,7 @@
         <v>40024</v>
       </c>
       <c r="B194" t="n">
-        <v>133086</v>
+        <v>163896</v>
       </c>
       <c r="C194" t="s">
         <v>1649</v>
@@ -25957,7 +25957,7 @@
         <v>40024</v>
       </c>
       <c r="B195" t="n">
-        <v>133004</v>
+        <v>133009</v>
       </c>
       <c r="C195" t="s">
         <v>780</v>
@@ -26022,7 +26022,7 @@
         <v>40024</v>
       </c>
       <c r="B196" t="n">
-        <v>133087</v>
+        <v>163897</v>
       </c>
       <c r="C196" t="s">
         <v>1661</v>
@@ -26083,7 +26083,7 @@
         <v>40024</v>
       </c>
       <c r="B197" t="n">
-        <v>133088</v>
+        <v>163898</v>
       </c>
       <c r="C197" t="s">
         <v>1665</v>
@@ -26217,7 +26217,7 @@
         <v>40024</v>
       </c>
       <c r="B199" t="n">
-        <v>133089</v>
+        <v>163899</v>
       </c>
       <c r="C199" t="s">
         <v>1676</v>
@@ -26351,7 +26351,7 @@
         <v>40024</v>
       </c>
       <c r="B201" t="n">
-        <v>133090</v>
+        <v>163900</v>
       </c>
       <c r="C201" t="s">
         <v>1690</v>
@@ -26418,7 +26418,7 @@
         <v>40024</v>
       </c>
       <c r="B202" t="n">
-        <v>133091</v>
+        <v>163901</v>
       </c>
       <c r="C202" t="s">
         <v>1700</v>
@@ -26483,7 +26483,7 @@
         <v>40024</v>
       </c>
       <c r="B203" t="n">
-        <v>133092</v>
+        <v>163902</v>
       </c>
       <c r="C203" t="s">
         <v>1707</v>
@@ -26548,7 +26548,7 @@
         <v>40024</v>
       </c>
       <c r="B204" t="n">
-        <v>133093</v>
+        <v>163903</v>
       </c>
       <c r="C204" t="s">
         <v>1714</v>
@@ -26670,7 +26670,7 @@
         <v>40024</v>
       </c>
       <c r="B206" t="n">
-        <v>133094</v>
+        <v>163904</v>
       </c>
       <c r="C206" t="s">
         <v>1727</v>
@@ -26737,7 +26737,7 @@
         <v>40024</v>
       </c>
       <c r="B207" t="n">
-        <v>133095</v>
+        <v>163905</v>
       </c>
       <c r="C207" t="s">
         <v>1734</v>
@@ -26802,7 +26802,7 @@
         <v>40024</v>
       </c>
       <c r="B208" t="n">
-        <v>133096</v>
+        <v>163906</v>
       </c>
       <c r="C208" t="s">
         <v>1742</v>
@@ -27003,7 +27003,7 @@
         <v>40024</v>
       </c>
       <c r="B211" t="n">
-        <v>133097</v>
+        <v>163907</v>
       </c>
       <c r="C211" t="s">
         <v>1759</v>
@@ -27135,7 +27135,7 @@
         <v>40024</v>
       </c>
       <c r="B213" t="n">
-        <v>133098</v>
+        <v>163908</v>
       </c>
       <c r="C213" t="s">
         <v>1772</v>
@@ -27206,7 +27206,7 @@
         <v>40024</v>
       </c>
       <c r="B214" t="n">
-        <v>133099</v>
+        <v>163909</v>
       </c>
       <c r="C214" t="s">
         <v>1781</v>
@@ -27271,7 +27271,7 @@
         <v>40024</v>
       </c>
       <c r="B215" t="n">
-        <v>133100</v>
+        <v>133022</v>
       </c>
       <c r="C215" t="s">
         <v>1786</v>
@@ -27332,7 +27332,7 @@
         <v>40024</v>
       </c>
       <c r="B216" t="n">
-        <v>133101</v>
+        <v>163910</v>
       </c>
       <c r="C216" t="s">
         <v>1792</v>
@@ -27399,7 +27399,7 @@
         <v>40024</v>
       </c>
       <c r="B217" t="n">
-        <v>133102</v>
+        <v>163911</v>
       </c>
       <c r="C217" t="s">
         <v>1797</v>
@@ -27531,7 +27531,7 @@
         <v>40024</v>
       </c>
       <c r="B219" t="n">
-        <v>133103</v>
+        <v>163912</v>
       </c>
       <c r="C219" t="s">
         <v>1812</v>
@@ -27740,7 +27740,7 @@
         <v>40024</v>
       </c>
       <c r="B222" t="n">
-        <v>133104</v>
+        <v>163913</v>
       </c>
       <c r="C222" t="s">
         <v>1837</v>
@@ -27805,7 +27805,7 @@
         <v>40024</v>
       </c>
       <c r="B223" t="n">
-        <v>133105</v>
+        <v>163914</v>
       </c>
       <c r="C223" t="s">
         <v>1843</v>
@@ -27937,7 +27937,7 @@
         <v>40024</v>
       </c>
       <c r="B225" t="n">
-        <v>133106</v>
+        <v>163915</v>
       </c>
       <c r="C225" t="s">
         <v>1856</v>
@@ -28063,7 +28063,7 @@
         <v>40024</v>
       </c>
       <c r="B227" t="n">
-        <v>133107</v>
+        <v>163916</v>
       </c>
       <c r="C227" t="s">
         <v>1869</v>
@@ -28195,7 +28195,7 @@
         <v>40024</v>
       </c>
       <c r="B229" t="n">
-        <v>133108</v>
+        <v>163917</v>
       </c>
       <c r="C229" t="s">
         <v>1882</v>
@@ -28260,7 +28260,7 @@
         <v>40024</v>
       </c>
       <c r="B230" t="n">
-        <v>133109</v>
+        <v>163918</v>
       </c>
       <c r="C230" t="s">
         <v>1889</v>
@@ -28327,7 +28327,7 @@
         <v>40024</v>
       </c>
       <c r="B231" t="n">
-        <v>133099</v>
+        <v>133022</v>
       </c>
       <c r="C231" t="s">
         <v>1786</v>
@@ -28461,7 +28461,7 @@
         <v>40024</v>
       </c>
       <c r="B233" t="n">
-        <v>133110</v>
+        <v>163919</v>
       </c>
       <c r="C233" t="s">
         <v>1911</v>
@@ -28522,7 +28522,7 @@
         <v>40024</v>
       </c>
       <c r="B234" t="n">
-        <v>133111</v>
+        <v>163920</v>
       </c>
       <c r="C234" t="s">
         <v>1918</v>
@@ -28920,7 +28920,7 @@
         <v>40024</v>
       </c>
       <c r="B240" t="n">
-        <v>133112</v>
+        <v>163921</v>
       </c>
       <c r="C240" t="s">
         <v>1960</v>
@@ -28987,7 +28987,7 @@
         <v>40024</v>
       </c>
       <c r="B241" t="n">
-        <v>133113</v>
+        <v>163922</v>
       </c>
       <c r="C241" t="s">
         <v>1966</v>
@@ -29052,7 +29052,7 @@
         <v>40024</v>
       </c>
       <c r="B242" t="n">
-        <v>133114</v>
+        <v>163923</v>
       </c>
       <c r="C242" t="s">
         <v>1973</v>
@@ -29119,7 +29119,7 @@
         <v>40024</v>
       </c>
       <c r="B243" t="n">
-        <v>133115</v>
+        <v>163924</v>
       </c>
       <c r="C243" t="s">
         <v>1980</v>
@@ -29249,7 +29249,7 @@
         <v>40024</v>
       </c>
       <c r="B245" t="n">
-        <v>133116</v>
+        <v>163925</v>
       </c>
       <c r="C245" t="s">
         <v>1992</v>
@@ -29383,7 +29383,7 @@
         <v>40024</v>
       </c>
       <c r="B247" t="n">
-        <v>133117</v>
+        <v>163926</v>
       </c>
       <c r="C247" t="s">
         <v>2005</v>
@@ -29450,7 +29450,7 @@
         <v>40024</v>
       </c>
       <c r="B248" t="n">
-        <v>133118</v>
+        <v>163927</v>
       </c>
       <c r="C248" t="s">
         <v>2011</v>
@@ -29517,7 +29517,7 @@
         <v>40024</v>
       </c>
       <c r="B249" t="n">
-        <v>133119</v>
+        <v>163928</v>
       </c>
       <c r="C249" t="s">
         <v>2017</v>
@@ -29584,7 +29584,7 @@
         <v>40024</v>
       </c>
       <c r="B250" t="n">
-        <v>133120</v>
+        <v>163929</v>
       </c>
       <c r="C250" t="s">
         <v>2022</v>
@@ -29651,7 +29651,7 @@
         <v>40024</v>
       </c>
       <c r="B251" t="n">
-        <v>133121</v>
+        <v>163930</v>
       </c>
       <c r="C251" t="s">
         <v>2028</v>
@@ -29718,7 +29718,7 @@
         <v>40024</v>
       </c>
       <c r="B252" t="n">
-        <v>133122</v>
+        <v>163931</v>
       </c>
       <c r="C252" t="s">
         <v>2035</v>
@@ -29783,7 +29783,7 @@
         <v>40024</v>
       </c>
       <c r="B253" t="n">
-        <v>133123</v>
+        <v>163932</v>
       </c>
       <c r="C253" t="s">
         <v>2042</v>
@@ -29852,7 +29852,7 @@
         <v>40024</v>
       </c>
       <c r="B254" t="n">
-        <v>133004</v>
+        <v>133009</v>
       </c>
       <c r="C254" t="s">
         <v>780</v>
@@ -29917,7 +29917,7 @@
         <v>40024</v>
       </c>
       <c r="B255" t="n">
-        <v>133124</v>
+        <v>163933</v>
       </c>
       <c r="C255" t="s">
         <v>2057</v>
@@ -29982,7 +29982,7 @@
         <v>40024</v>
       </c>
       <c r="B256" t="n">
-        <v>133125</v>
+        <v>163934</v>
       </c>
       <c r="C256" t="s">
         <v>2065</v>
@@ -30039,7 +30039,7 @@
         <v>40024</v>
       </c>
       <c r="B257" t="n">
-        <v>133126</v>
+        <v>163935</v>
       </c>
       <c r="C257" t="s">
         <v>2070</v>
@@ -30177,7 +30177,7 @@
         <v>40024</v>
       </c>
       <c r="B259" t="n">
-        <v>133127</v>
+        <v>163936</v>
       </c>
       <c r="C259" t="s">
         <v>2085</v>
@@ -30238,7 +30238,7 @@
         <v>40024</v>
       </c>
       <c r="B260" t="n">
-        <v>133128</v>
+        <v>163937</v>
       </c>
       <c r="C260" t="s">
         <v>2090</v>
@@ -30309,7 +30309,7 @@
         <v>40024</v>
       </c>
       <c r="B261" t="n">
-        <v>133129</v>
+        <v>163938</v>
       </c>
       <c r="C261" t="s">
         <v>2099</v>
@@ -30441,7 +30441,7 @@
         <v>40024</v>
       </c>
       <c r="B263" t="n">
-        <v>133130</v>
+        <v>163939</v>
       </c>
       <c r="C263" t="s">
         <v>2111</v>
@@ -30510,7 +30510,7 @@
         <v>40024</v>
       </c>
       <c r="B264" t="n">
-        <v>133131</v>
+        <v>163940</v>
       </c>
       <c r="C264" t="s">
         <v>2120</v>
@@ -30581,7 +30581,7 @@
         <v>40024</v>
       </c>
       <c r="B265" t="n">
-        <v>133132</v>
+        <v>163941</v>
       </c>
       <c r="C265" t="s">
         <v>2127</v>
@@ -30642,7 +30642,7 @@
         <v>40024</v>
       </c>
       <c r="B266" t="n">
-        <v>133133</v>
+        <v>163942</v>
       </c>
       <c r="C266" t="s">
         <v>2133</v>
@@ -30847,7 +30847,7 @@
         <v>40024</v>
       </c>
       <c r="B269" t="n">
-        <v>133134</v>
+        <v>163943</v>
       </c>
       <c r="C269" t="s">
         <v>2151</v>
@@ -30993,7 +30993,7 @@
         <v>40024</v>
       </c>
       <c r="B271" t="n">
-        <v>133135</v>
+        <v>163944</v>
       </c>
       <c r="C271" t="s">
         <v>2166</v>
@@ -31068,7 +31068,7 @@
         <v>40024</v>
       </c>
       <c r="B272" t="n">
-        <v>133136</v>
+        <v>163945</v>
       </c>
       <c r="C272" t="s">
         <v>2176</v>
@@ -31143,7 +31143,7 @@
         <v>40024</v>
       </c>
       <c r="B273" t="n">
-        <v>133137</v>
+        <v>163946</v>
       </c>
       <c r="C273" t="s">
         <v>2185</v>
@@ -31218,7 +31218,7 @@
         <v>40024</v>
       </c>
       <c r="B274" t="n">
-        <v>133138</v>
+        <v>163947</v>
       </c>
       <c r="C274" t="s">
         <v>2194</v>
@@ -31293,7 +31293,7 @@
         <v>40024</v>
       </c>
       <c r="B275" t="n">
-        <v>133139</v>
+        <v>163948</v>
       </c>
       <c r="C275" t="s">
         <v>2204</v>
@@ -31368,7 +31368,7 @@
         <v>40024</v>
       </c>
       <c r="B276" t="n">
-        <v>133140</v>
+        <v>163949</v>
       </c>
       <c r="C276" t="s">
         <v>2211</v>
@@ -31443,7 +31443,7 @@
         <v>40024</v>
       </c>
       <c r="B277" t="n">
-        <v>133141</v>
+        <v>163950</v>
       </c>
       <c r="C277" t="s">
         <v>2220</v>
@@ -31518,7 +31518,7 @@
         <v>40024</v>
       </c>
       <c r="B278" t="n">
-        <v>133142</v>
+        <v>163951</v>
       </c>
       <c r="C278" t="s">
         <v>2229</v>
@@ -31583,7 +31583,7 @@
         <v>40024</v>
       </c>
       <c r="B279" t="n">
-        <v>133143</v>
+        <v>163952</v>
       </c>
       <c r="C279" t="s">
         <v>2238</v>
@@ -31658,7 +31658,7 @@
         <v>40024</v>
       </c>
       <c r="B280" t="n">
-        <v>133144</v>
+        <v>163953</v>
       </c>
       <c r="C280" t="s">
         <v>2245</v>
@@ -31733,7 +31733,7 @@
         <v>40024</v>
       </c>
       <c r="B281" t="n">
-        <v>133145</v>
+        <v>163954</v>
       </c>
       <c r="C281" t="s">
         <v>2252</v>
@@ -31804,7 +31804,7 @@
         <v>40024</v>
       </c>
       <c r="B282" t="n">
-        <v>133146</v>
+        <v>163955</v>
       </c>
       <c r="C282" t="s">
         <v>2261</v>
@@ -31954,7 +31954,7 @@
         <v>40024</v>
       </c>
       <c r="B284" t="n">
-        <v>133147</v>
+        <v>163956</v>
       </c>
       <c r="C284" t="s">
         <v>2278</v>
@@ -32169,7 +32169,7 @@
         <v>40024</v>
       </c>
       <c r="B287" t="n">
-        <v>133148</v>
+        <v>163957</v>
       </c>
       <c r="C287" t="s">
         <v>2299</v>
@@ -32319,7 +32319,7 @@
         <v>40024</v>
       </c>
       <c r="B289" t="n">
-        <v>133149</v>
+        <v>163958</v>
       </c>
       <c r="C289" t="s">
         <v>2316</v>
@@ -32394,7 +32394,7 @@
         <v>40024</v>
       </c>
       <c r="B290" t="n">
-        <v>133150</v>
+        <v>163959</v>
       </c>
       <c r="C290" t="s">
         <v>2325</v>
@@ -32520,7 +32520,7 @@
         <v>40024</v>
       </c>
       <c r="B292" t="n">
-        <v>133151</v>
+        <v>163960</v>
       </c>
       <c r="C292" t="s">
         <v>2343</v>
@@ -32589,7 +32589,7 @@
         <v>40024</v>
       </c>
       <c r="B293" t="n">
-        <v>133152</v>
+        <v>133087</v>
       </c>
       <c r="C293" t="s">
         <v>2350</v>
@@ -32814,7 +32814,7 @@
         <v>40024</v>
       </c>
       <c r="B296" t="n">
-        <v>133153</v>
+        <v>163961</v>
       </c>
       <c r="C296" t="s">
         <v>2378</v>
@@ -32889,7 +32889,7 @@
         <v>40024</v>
       </c>
       <c r="B297" t="n">
-        <v>133154</v>
+        <v>163962</v>
       </c>
       <c r="C297" t="s">
         <v>2387</v>
@@ -32954,7 +32954,7 @@
         <v>40024</v>
       </c>
       <c r="B298" t="n">
-        <v>133155</v>
+        <v>163963</v>
       </c>
       <c r="C298" t="s">
         <v>2396</v>
@@ -33104,7 +33104,7 @@
         <v>40024</v>
       </c>
       <c r="B300" t="n">
-        <v>133156</v>
+        <v>163964</v>
       </c>
       <c r="C300" t="s">
         <v>2413</v>
@@ -33179,7 +33179,7 @@
         <v>40024</v>
       </c>
       <c r="B301" t="n">
-        <v>133157</v>
+        <v>163965</v>
       </c>
       <c r="C301" t="s">
         <v>2421</v>
@@ -33254,7 +33254,7 @@
         <v>40024</v>
       </c>
       <c r="B302" t="n">
-        <v>133158</v>
+        <v>163966</v>
       </c>
       <c r="C302" t="s">
         <v>2429</v>
@@ -33329,7 +33329,7 @@
         <v>40024</v>
       </c>
       <c r="B303" t="n">
-        <v>133159</v>
+        <v>163967</v>
       </c>
       <c r="C303" t="s">
         <v>2438</v>
@@ -33469,7 +33469,7 @@
         <v>40024</v>
       </c>
       <c r="B305" t="n">
-        <v>133160</v>
+        <v>163968</v>
       </c>
       <c r="C305" t="s">
         <v>2452</v>
@@ -33544,7 +33544,7 @@
         <v>40024</v>
       </c>
       <c r="B306" t="n">
-        <v>133161</v>
+        <v>163969</v>
       </c>
       <c r="C306" t="s">
         <v>2461</v>
@@ -33619,7 +33619,7 @@
         <v>40024</v>
       </c>
       <c r="B307" t="n">
-        <v>133162</v>
+        <v>163970</v>
       </c>
       <c r="C307" t="s">
         <v>2471</v>
@@ -33694,7 +33694,7 @@
         <v>40024</v>
       </c>
       <c r="B308" t="n">
-        <v>133163</v>
+        <v>163971</v>
       </c>
       <c r="C308" t="s">
         <v>2480</v>
@@ -33763,7 +33763,7 @@
         <v>40024</v>
       </c>
       <c r="B309" t="n">
-        <v>133164</v>
+        <v>163972</v>
       </c>
       <c r="C309" t="s">
         <v>2490</v>
@@ -33834,7 +33834,7 @@
         <v>40024</v>
       </c>
       <c r="B310" t="n">
-        <v>133165</v>
+        <v>163973</v>
       </c>
       <c r="C310" t="s">
         <v>2498</v>
@@ -33909,7 +33909,7 @@
         <v>40024</v>
       </c>
       <c r="B311" t="n">
-        <v>133166</v>
+        <v>163974</v>
       </c>
       <c r="C311" t="s">
         <v>2505</v>
@@ -33984,7 +33984,7 @@
         <v>40024</v>
       </c>
       <c r="B312" t="n">
-        <v>133167</v>
+        <v>163975</v>
       </c>
       <c r="C312" t="s">
         <v>2512</v>
@@ -34049,7 +34049,7 @@
         <v>40024</v>
       </c>
       <c r="B313" t="n">
-        <v>133168</v>
+        <v>163976</v>
       </c>
       <c r="C313" t="s">
         <v>2519</v>
@@ -34124,7 +34124,7 @@
         <v>40024</v>
       </c>
       <c r="B314" t="n">
-        <v>133169</v>
+        <v>163977</v>
       </c>
       <c r="C314" t="s">
         <v>2525</v>
@@ -34199,7 +34199,7 @@
         <v>40024</v>
       </c>
       <c r="B315" t="n">
-        <v>133170</v>
+        <v>163978</v>
       </c>
       <c r="C315" t="s">
         <v>2534</v>
@@ -34274,7 +34274,7 @@
         <v>40024</v>
       </c>
       <c r="B316" t="n">
-        <v>133171</v>
+        <v>163979</v>
       </c>
       <c r="C316" t="s">
         <v>2541</v>
@@ -34339,7 +34339,7 @@
         <v>40024</v>
       </c>
       <c r="B317" t="n">
-        <v>133172</v>
+        <v>163980</v>
       </c>
       <c r="C317" t="s">
         <v>2548</v>
@@ -34414,7 +34414,7 @@
         <v>40024</v>
       </c>
       <c r="B318" t="n">
-        <v>133173</v>
+        <v>163981</v>
       </c>
       <c r="C318" t="s">
         <v>2558</v>
@@ -34489,7 +34489,7 @@
         <v>40024</v>
       </c>
       <c r="B319" t="n">
-        <v>133174</v>
+        <v>163982</v>
       </c>
       <c r="C319" t="s">
         <v>2565</v>
@@ -34564,7 +34564,7 @@
         <v>40024</v>
       </c>
       <c r="B320" t="n">
-        <v>133175</v>
+        <v>133086</v>
       </c>
       <c r="C320" t="s">
         <v>2574</v>
@@ -34639,7 +34639,7 @@
         <v>40024</v>
       </c>
       <c r="B321" t="n">
-        <v>133176</v>
+        <v>163983</v>
       </c>
       <c r="C321" t="s">
         <v>2583</v>
@@ -34789,7 +34789,7 @@
         <v>40024</v>
       </c>
       <c r="B323" t="n">
-        <v>133177</v>
+        <v>163984</v>
       </c>
       <c r="C323" t="s">
         <v>2598</v>
@@ -34864,7 +34864,7 @@
         <v>40024</v>
       </c>
       <c r="B324" t="n">
-        <v>133178</v>
+        <v>163985</v>
       </c>
       <c r="C324" t="s">
         <v>2607</v>
@@ -35014,7 +35014,7 @@
         <v>40024</v>
       </c>
       <c r="B326" t="n">
-        <v>133179</v>
+        <v>163986</v>
       </c>
       <c r="C326" t="s">
         <v>2623</v>
@@ -35089,7 +35089,7 @@
         <v>40024</v>
       </c>
       <c r="B327" t="n">
-        <v>133180</v>
+        <v>163987</v>
       </c>
       <c r="C327" t="s">
         <v>2632</v>
@@ -35164,7 +35164,7 @@
         <v>40024</v>
       </c>
       <c r="B328" t="n">
-        <v>133181</v>
+        <v>163988</v>
       </c>
       <c r="C328" t="s">
         <v>2639</v>
@@ -35239,7 +35239,7 @@
         <v>40024</v>
       </c>
       <c r="B329" t="n">
-        <v>133182</v>
+        <v>163989</v>
       </c>
       <c r="C329" t="s">
         <v>2646</v>
@@ -35314,7 +35314,7 @@
         <v>40024</v>
       </c>
       <c r="B330" t="n">
-        <v>133183</v>
+        <v>163990</v>
       </c>
       <c r="C330" t="s">
         <v>2654</v>
@@ -35389,7 +35389,7 @@
         <v>40024</v>
       </c>
       <c r="B331" t="n">
-        <v>133184</v>
+        <v>163991</v>
       </c>
       <c r="C331" t="s">
         <v>2661</v>
@@ -35464,7 +35464,7 @@
         <v>40024</v>
       </c>
       <c r="B332" t="n">
-        <v>133185</v>
+        <v>163992</v>
       </c>
       <c r="C332" t="s">
         <v>2670</v>
@@ -35539,7 +35539,7 @@
         <v>40024</v>
       </c>
       <c r="B333" t="n">
-        <v>133186</v>
+        <v>163993</v>
       </c>
       <c r="C333" t="s">
         <v>2678</v>
@@ -35610,7 +35610,7 @@
         <v>40024</v>
       </c>
       <c r="B334" t="n">
-        <v>133187</v>
+        <v>163994</v>
       </c>
       <c r="C334" t="s">
         <v>2687</v>
@@ -35683,7 +35683,7 @@
         <v>40024</v>
       </c>
       <c r="B335" t="n">
-        <v>133188</v>
+        <v>163995</v>
       </c>
       <c r="C335" t="s">
         <v>2696</v>
@@ -35758,7 +35758,7 @@
         <v>40024</v>
       </c>
       <c r="B336" t="n">
-        <v>133189</v>
+        <v>163996</v>
       </c>
       <c r="C336" t="s">
         <v>2706</v>
@@ -35833,7 +35833,7 @@
         <v>40024</v>
       </c>
       <c r="B337" t="n">
-        <v>133190</v>
+        <v>163997</v>
       </c>
       <c r="C337" t="s">
         <v>2712</v>
@@ -35908,7 +35908,7 @@
         <v>40024</v>
       </c>
       <c r="B338" t="n">
-        <v>133191</v>
+        <v>163998</v>
       </c>
       <c r="C338" t="s">
         <v>2719</v>
@@ -36208,7 +36208,7 @@
         <v>40024</v>
       </c>
       <c r="B342" t="n">
-        <v>133192</v>
+        <v>163999</v>
       </c>
       <c r="C342" t="s">
         <v>2755</v>
@@ -36283,7 +36283,7 @@
         <v>40024</v>
       </c>
       <c r="B343" t="n">
-        <v>133193</v>
+        <v>164000</v>
       </c>
       <c r="C343" t="s">
         <v>2764</v>
@@ -36433,7 +36433,7 @@
         <v>40024</v>
       </c>
       <c r="B345" t="n">
-        <v>133194</v>
+        <v>164001</v>
       </c>
       <c r="C345" t="s">
         <v>2779</v>
@@ -36583,7 +36583,7 @@
         <v>40024</v>
       </c>
       <c r="B347" t="n">
-        <v>133195</v>
+        <v>164002</v>
       </c>
       <c r="C347" t="s">
         <v>2795</v>
@@ -36658,7 +36658,7 @@
         <v>40024</v>
       </c>
       <c r="B348" t="n">
-        <v>133196</v>
+        <v>164003</v>
       </c>
       <c r="C348" t="s">
         <v>2804</v>
@@ -36883,7 +36883,7 @@
         <v>40024</v>
       </c>
       <c r="B351" t="n">
-        <v>133197</v>
+        <v>164004</v>
       </c>
       <c r="C351" t="s">
         <v>2826</v>
@@ -36958,7 +36958,7 @@
         <v>40024</v>
       </c>
       <c r="B352" t="n">
-        <v>133198</v>
+        <v>164005</v>
       </c>
       <c r="C352" t="s">
         <v>2835</v>
@@ -37033,7 +37033,7 @@
         <v>40024</v>
       </c>
       <c r="B353" t="n">
-        <v>133199</v>
+        <v>164006</v>
       </c>
       <c r="C353" t="s">
         <v>2841</v>
@@ -37108,7 +37108,7 @@
         <v>40024</v>
       </c>
       <c r="B354" t="n">
-        <v>133200</v>
+        <v>164007</v>
       </c>
       <c r="C354" t="s">
         <v>2851</v>
@@ -37183,7 +37183,7 @@
         <v>40024</v>
       </c>
       <c r="B355" t="n">
-        <v>133201</v>
+        <v>164008</v>
       </c>
       <c r="C355" t="s">
         <v>2860</v>
@@ -37256,7 +37256,7 @@
         <v>40024</v>
       </c>
       <c r="B356" t="n">
-        <v>133202</v>
+        <v>164009</v>
       </c>
       <c r="C356" t="s">
         <v>2867</v>
@@ -37331,7 +37331,7 @@
         <v>40024</v>
       </c>
       <c r="B357" t="n">
-        <v>133203</v>
+        <v>164010</v>
       </c>
       <c r="C357" t="s">
         <v>2876</v>
@@ -37406,7 +37406,7 @@
         <v>40024</v>
       </c>
       <c r="B358" t="n">
-        <v>133204</v>
+        <v>164011</v>
       </c>
       <c r="C358" t="s">
         <v>2882</v>
@@ -37481,7 +37481,7 @@
         <v>40024</v>
       </c>
       <c r="B359" t="n">
-        <v>133205</v>
+        <v>164012</v>
       </c>
       <c r="C359" t="s">
         <v>2888</v>
@@ -37556,7 +37556,7 @@
         <v>40024</v>
       </c>
       <c r="B360" t="n">
-        <v>133206</v>
+        <v>164013</v>
       </c>
       <c r="C360" t="s">
         <v>2898</v>
@@ -37631,7 +37631,7 @@
         <v>40024</v>
       </c>
       <c r="B361" t="n">
-        <v>133207</v>
+        <v>164014</v>
       </c>
       <c r="C361" t="s">
         <v>2904</v>
@@ -37696,7 +37696,7 @@
         <v>40024</v>
       </c>
       <c r="B362" t="n">
-        <v>133208</v>
+        <v>164015</v>
       </c>
       <c r="C362" t="s">
         <v>2910</v>
@@ -37846,7 +37846,7 @@
         <v>40024</v>
       </c>
       <c r="B364" t="n">
-        <v>133209</v>
+        <v>164016</v>
       </c>
       <c r="C364" t="s">
         <v>2928</v>
@@ -37921,7 +37921,7 @@
         <v>40024</v>
       </c>
       <c r="B365" t="n">
-        <v>133210</v>
+        <v>164017</v>
       </c>
       <c r="C365" t="s">
         <v>2934</v>
@@ -37996,7 +37996,7 @@
         <v>40024</v>
       </c>
       <c r="B366" t="n">
-        <v>133211</v>
+        <v>164018</v>
       </c>
       <c r="C366" t="s">
         <v>2943</v>
@@ -38071,7 +38071,7 @@
         <v>40024</v>
       </c>
       <c r="B367" t="n">
-        <v>133212</v>
+        <v>164019</v>
       </c>
       <c r="C367" t="s">
         <v>2952</v>
@@ -38142,7 +38142,7 @@
         <v>40024</v>
       </c>
       <c r="B368" t="n">
-        <v>133213</v>
+        <v>164020</v>
       </c>
       <c r="C368" t="s">
         <v>2961</v>
@@ -38282,7 +38282,7 @@
         <v>40024</v>
       </c>
       <c r="B370" t="n">
-        <v>133214</v>
+        <v>164021</v>
       </c>
       <c r="C370" t="s">
         <v>2978</v>
@@ -38347,7 +38347,7 @@
         <v>40024</v>
       </c>
       <c r="B371" t="n">
-        <v>133215</v>
+        <v>164022</v>
       </c>
       <c r="C371" t="s">
         <v>2986</v>
@@ -38493,7 +38493,7 @@
         <v>40024</v>
       </c>
       <c r="B373" t="n">
-        <v>133216</v>
+        <v>164023</v>
       </c>
       <c r="C373" t="s">
         <v>3004</v>
@@ -38568,7 +38568,7 @@
         <v>40024</v>
       </c>
       <c r="B374" t="n">
-        <v>133217</v>
+        <v>164024</v>
       </c>
       <c r="C374" t="s">
         <v>3013</v>
@@ -38943,7 +38943,7 @@
         <v>40024</v>
       </c>
       <c r="B379" t="n">
-        <v>133218</v>
+        <v>164025</v>
       </c>
       <c r="C379" t="s">
         <v>3055</v>
@@ -39018,7 +39018,7 @@
         <v>40024</v>
       </c>
       <c r="B380" t="n">
-        <v>133219</v>
+        <v>164026</v>
       </c>
       <c r="C380" t="s">
         <v>3062</v>
@@ -39093,7 +39093,7 @@
         <v>40024</v>
       </c>
       <c r="B381" t="n">
-        <v>133220</v>
+        <v>164027</v>
       </c>
       <c r="C381" t="s">
         <v>3069</v>
@@ -39168,7 +39168,7 @@
         <v>40024</v>
       </c>
       <c r="B382" t="n">
-        <v>133221</v>
+        <v>164028</v>
       </c>
       <c r="C382" t="s">
         <v>3076</v>
@@ -39393,7 +39393,7 @@
         <v>40024</v>
       </c>
       <c r="B385" t="n">
-        <v>133222</v>
+        <v>164029</v>
       </c>
       <c r="C385" t="s">
         <v>3100</v>
@@ -39468,7 +39468,7 @@
         <v>40024</v>
       </c>
       <c r="B386" t="n">
-        <v>133223</v>
+        <v>164030</v>
       </c>
       <c r="C386" t="s">
         <v>3109</v>
@@ -39618,7 +39618,7 @@
         <v>40024</v>
       </c>
       <c r="B388" t="n">
-        <v>133224</v>
+        <v>164031</v>
       </c>
       <c r="C388" t="s">
         <v>3126</v>
@@ -39693,7 +39693,7 @@
         <v>40024</v>
       </c>
       <c r="B389" t="n">
-        <v>133225</v>
+        <v>164032</v>
       </c>
       <c r="C389" t="s">
         <v>3134</v>
@@ -39768,7 +39768,7 @@
         <v>40024</v>
       </c>
       <c r="B390" t="n">
-        <v>133226</v>
+        <v>164033</v>
       </c>
       <c r="C390" t="s">
         <v>3143</v>
@@ -39843,7 +39843,7 @@
         <v>40024</v>
       </c>
       <c r="B391" t="n">
-        <v>133227</v>
+        <v>164034</v>
       </c>
       <c r="C391" t="s">
         <v>3152</v>
@@ -39914,7 +39914,7 @@
         <v>40024</v>
       </c>
       <c r="B392" t="n">
-        <v>133228</v>
+        <v>164035</v>
       </c>
       <c r="C392" t="s">
         <v>3158</v>
@@ -40064,7 +40064,7 @@
         <v>40024</v>
       </c>
       <c r="B394" t="n">
-        <v>133229</v>
+        <v>164036</v>
       </c>
       <c r="C394" t="s">
         <v>3177</v>
@@ -40139,7 +40139,7 @@
         <v>40024</v>
       </c>
       <c r="B395" t="n">
-        <v>133230</v>
+        <v>164037</v>
       </c>
       <c r="C395" t="s">
         <v>3183</v>
@@ -40289,7 +40289,7 @@
         <v>40024</v>
       </c>
       <c r="B397" t="n">
-        <v>133231</v>
+        <v>164038</v>
       </c>
       <c r="C397" t="s">
         <v>3197</v>
@@ -40506,7 +40506,7 @@
         <v>40024</v>
       </c>
       <c r="B400" t="n">
-        <v>133232</v>
+        <v>164039</v>
       </c>
       <c r="C400" t="s">
         <v>3222</v>
@@ -40581,7 +40581,7 @@
         <v>40024</v>
       </c>
       <c r="B401" t="n">
-        <v>133233</v>
+        <v>164040</v>
       </c>
       <c r="C401" t="s">
         <v>3228</v>
@@ -40802,7 +40802,7 @@
         <v>40024</v>
       </c>
       <c r="B404" t="n">
-        <v>133234</v>
+        <v>164041</v>
       </c>
       <c r="C404" t="s">
         <v>3250</v>
@@ -40877,7 +40877,7 @@
         <v>40024</v>
       </c>
       <c r="B405" t="n">
-        <v>133235</v>
+        <v>164042</v>
       </c>
       <c r="C405" t="s">
         <v>3257</v>
@@ -40952,7 +40952,7 @@
         <v>40024</v>
       </c>
       <c r="B406" t="n">
-        <v>133236</v>
+        <v>164043</v>
       </c>
       <c r="C406" t="s">
         <v>3266</v>
@@ -41167,7 +41167,7 @@
         <v>40024</v>
       </c>
       <c r="B409" t="n">
-        <v>133237</v>
+        <v>164044</v>
       </c>
       <c r="C409" t="s">
         <v>3292</v>
@@ -41313,7 +41313,7 @@
         <v>40024</v>
       </c>
       <c r="B411" t="n">
-        <v>133238</v>
+        <v>164045</v>
       </c>
       <c r="C411" t="s">
         <v>3309</v>
@@ -41388,7 +41388,7 @@
         <v>40024</v>
       </c>
       <c r="B412" t="n">
-        <v>133239</v>
+        <v>164046</v>
       </c>
       <c r="C412" t="s">
         <v>3317</v>
@@ -41459,7 +41459,7 @@
         <v>40024</v>
       </c>
       <c r="B413" t="n">
-        <v>133240</v>
+        <v>164047</v>
       </c>
       <c r="C413" t="s">
         <v>3324</v>
@@ -41684,7 +41684,7 @@
         <v>40024</v>
       </c>
       <c r="B416" t="n">
-        <v>133241</v>
+        <v>164048</v>
       </c>
       <c r="C416" t="s">
         <v>3348</v>
@@ -41759,7 +41759,7 @@
         <v>40024</v>
       </c>
       <c r="B417" t="n">
-        <v>133242</v>
+        <v>164049</v>
       </c>
       <c r="C417" t="s">
         <v>3357</v>
@@ -41834,7 +41834,7 @@
         <v>40024</v>
       </c>
       <c r="B418" t="n">
-        <v>133243</v>
+        <v>164050</v>
       </c>
       <c r="C418" t="s">
         <v>3362</v>
@@ -41905,7 +41905,7 @@
         <v>40024</v>
       </c>
       <c r="B419" t="n">
-        <v>133244</v>
+        <v>164051</v>
       </c>
       <c r="C419" t="s">
         <v>3371</v>
@@ -42041,7 +42041,7 @@
         <v>40024</v>
       </c>
       <c r="B421" t="n">
-        <v>133245</v>
+        <v>164052</v>
       </c>
       <c r="C421" t="s">
         <v>3390</v>
@@ -42191,7 +42191,7 @@
         <v>40024</v>
       </c>
       <c r="B423" t="n">
-        <v>133246</v>
+        <v>164053</v>
       </c>
       <c r="C423" t="s">
         <v>3406</v>
@@ -42266,7 +42266,7 @@
         <v>40024</v>
       </c>
       <c r="B424" t="n">
-        <v>133247</v>
+        <v>164054</v>
       </c>
       <c r="C424" t="s">
         <v>3413</v>
@@ -42341,7 +42341,7 @@
         <v>40024</v>
       </c>
       <c r="B425" t="n">
-        <v>133248</v>
+        <v>164055</v>
       </c>
       <c r="C425" t="s">
         <v>3420</v>
@@ -42416,7 +42416,7 @@
         <v>40024</v>
       </c>
       <c r="B426" t="n">
-        <v>133249</v>
+        <v>164056</v>
       </c>
       <c r="C426" t="s">
         <v>3428</v>
@@ -42554,7 +42554,7 @@
         <v>40024</v>
       </c>
       <c r="B428" t="n">
-        <v>133250</v>
+        <v>164057</v>
       </c>
       <c r="C428" t="s">
         <v>3440</v>
@@ -42621,7 +42621,7 @@
         <v>40024</v>
       </c>
       <c r="B429" t="n">
-        <v>133251</v>
+        <v>164058</v>
       </c>
       <c r="C429" t="s">
         <v>3446</v>
@@ -42692,7 +42692,7 @@
         <v>40024</v>
       </c>
       <c r="B430" t="n">
-        <v>133252</v>
+        <v>164059</v>
       </c>
       <c r="C430" t="s">
         <v>3453</v>
@@ -42763,7 +42763,7 @@
         <v>40024</v>
       </c>
       <c r="B431" t="n">
-        <v>133253</v>
+        <v>164060</v>
       </c>
       <c r="C431" t="s">
         <v>3460</v>
@@ -42834,7 +42834,7 @@
         <v>40024</v>
       </c>
       <c r="B432" t="n">
-        <v>133254</v>
+        <v>164061</v>
       </c>
       <c r="C432" t="s">
         <v>3467</v>
@@ -42905,7 +42905,7 @@
         <v>40024</v>
       </c>
       <c r="B433" t="n">
-        <v>133255</v>
+        <v>164062</v>
       </c>
       <c r="C433" t="s">
         <v>3473</v>
@@ -43118,7 +43118,7 @@
         <v>40024</v>
       </c>
       <c r="B436" t="n">
-        <v>133256</v>
+        <v>164063</v>
       </c>
       <c r="C436" t="s">
         <v>3492</v>
@@ -43260,7 +43260,7 @@
         <v>40024</v>
       </c>
       <c r="B438" t="n">
-        <v>133257</v>
+        <v>164064</v>
       </c>
       <c r="C438" t="s">
         <v>3505</v>
@@ -43331,7 +43331,7 @@
         <v>40024</v>
       </c>
       <c r="B439" t="n">
-        <v>133258</v>
+        <v>164065</v>
       </c>
       <c r="C439" t="s">
         <v>3512</v>
@@ -43473,7 +43473,7 @@
         <v>40024</v>
       </c>
       <c r="B441" t="n">
-        <v>133259</v>
+        <v>164066</v>
       </c>
       <c r="C441" t="s">
         <v>3527</v>
@@ -43757,7 +43757,7 @@
         <v>40024</v>
       </c>
       <c r="B445" t="n">
-        <v>133174</v>
+        <v>133086</v>
       </c>
       <c r="C445" t="s">
         <v>2574</v>
@@ -43826,7 +43826,7 @@
         <v>40024</v>
       </c>
       <c r="B446" t="n">
-        <v>133260</v>
+        <v>164067</v>
       </c>
       <c r="C446" t="s">
         <v>3559</v>
@@ -43893,7 +43893,7 @@
         <v>40024</v>
       </c>
       <c r="B447" t="n">
-        <v>133261</v>
+        <v>164068</v>
       </c>
       <c r="C447" t="s">
         <v>3565</v>
@@ -43960,7 +43960,7 @@
         <v>40024</v>
       </c>
       <c r="B448" t="n">
-        <v>133262</v>
+        <v>164069</v>
       </c>
       <c r="C448" t="s">
         <v>3572</v>
@@ -44027,7 +44027,7 @@
         <v>40024</v>
       </c>
       <c r="B449" t="n">
-        <v>133263</v>
+        <v>164070</v>
       </c>
       <c r="C449" t="s">
         <v>3579</v>
@@ -44094,7 +44094,7 @@
         <v>40024</v>
       </c>
       <c r="B450" t="n">
-        <v>133264</v>
+        <v>164071</v>
       </c>
       <c r="C450" t="s">
         <v>3586</v>
@@ -44161,7 +44161,7 @@
         <v>40024</v>
       </c>
       <c r="B451" t="n">
-        <v>133265</v>
+        <v>164072</v>
       </c>
       <c r="C451" t="s">
         <v>3593</v>
@@ -44228,7 +44228,7 @@
         <v>40024</v>
       </c>
       <c r="B452" t="n">
-        <v>133266</v>
+        <v>164073</v>
       </c>
       <c r="C452" t="s">
         <v>3600</v>
@@ -44295,7 +44295,7 @@
         <v>40024</v>
       </c>
       <c r="B453" t="n">
-        <v>133267</v>
+        <v>164074</v>
       </c>
       <c r="C453" t="s">
         <v>3607</v>
@@ -44362,7 +44362,7 @@
         <v>40024</v>
       </c>
       <c r="B454" t="n">
-        <v>133268</v>
+        <v>164075</v>
       </c>
       <c r="C454" t="s">
         <v>3613</v>
@@ -44429,7 +44429,7 @@
         <v>40024</v>
       </c>
       <c r="B455" t="n">
-        <v>133151</v>
+        <v>133087</v>
       </c>
       <c r="C455" t="s">
         <v>2350</v>
@@ -44500,7 +44500,7 @@
         <v>40024</v>
       </c>
       <c r="B456" t="n">
-        <v>133269</v>
+        <v>164076</v>
       </c>
       <c r="C456" t="s">
         <v>3626</v>
@@ -44638,7 +44638,7 @@
         <v>40024</v>
       </c>
       <c r="B458" t="n">
-        <v>133270</v>
+        <v>164077</v>
       </c>
       <c r="C458" t="s">
         <v>3638</v>
@@ -44705,7 +44705,7 @@
         <v>40024</v>
       </c>
       <c r="B459" t="n">
-        <v>133271</v>
+        <v>164078</v>
       </c>
       <c r="C459" t="s">
         <v>3644</v>
@@ -44776,7 +44776,7 @@
         <v>40024</v>
       </c>
       <c r="B460" t="n">
-        <v>133272</v>
+        <v>145322</v>
       </c>
       <c r="C460" t="s">
         <v>3651</v>
@@ -44847,7 +44847,7 @@
         <v>40024</v>
       </c>
       <c r="B461" t="n">
-        <v>133273</v>
+        <v>164079</v>
       </c>
       <c r="C461" t="s">
         <v>3659</v>
@@ -44918,7 +44918,7 @@
         <v>40024</v>
       </c>
       <c r="B462" t="n">
-        <v>133274</v>
+        <v>164080</v>
       </c>
       <c r="C462" t="s">
         <v>3667</v>
@@ -45131,7 +45131,7 @@
         <v>40024</v>
       </c>
       <c r="B465" t="n">
-        <v>133275</v>
+        <v>164081</v>
       </c>
       <c r="C465" t="s">
         <v>3689</v>
@@ -45277,7 +45277,7 @@
         <v>40024</v>
       </c>
       <c r="B467" t="n">
-        <v>133276</v>
+        <v>164082</v>
       </c>
       <c r="C467" t="s">
         <v>3705</v>
@@ -45348,7 +45348,7 @@
         <v>40024</v>
       </c>
       <c r="B468" t="n">
-        <v>133277</v>
+        <v>164083</v>
       </c>
       <c r="C468" t="s">
         <v>3713</v>
@@ -45421,7 +45421,7 @@
         <v>40024</v>
       </c>
       <c r="B469" t="n">
-        <v>133278</v>
+        <v>164084</v>
       </c>
       <c r="C469" t="s">
         <v>3723</v>
@@ -45496,7 +45496,7 @@
         <v>40024</v>
       </c>
       <c r="B470" t="n">
-        <v>133279</v>
+        <v>164085</v>
       </c>
       <c r="C470" t="s">
         <v>3733</v>
@@ -45571,7 +45571,7 @@
         <v>40024</v>
       </c>
       <c r="B471" t="n">
-        <v>133280</v>
+        <v>164086</v>
       </c>
       <c r="C471" t="s">
         <v>3743</v>
@@ -45642,7 +45642,7 @@
         <v>40024</v>
       </c>
       <c r="B472" t="n">
-        <v>133281</v>
+        <v>164087</v>
       </c>
       <c r="C472" t="s">
         <v>3750</v>
@@ -45717,7 +45717,7 @@
         <v>40024</v>
       </c>
       <c r="B473" t="n">
-        <v>133282</v>
+        <v>164088</v>
       </c>
       <c r="C473" t="s">
         <v>3760</v>
@@ -45788,7 +45788,7 @@
         <v>40024</v>
       </c>
       <c r="B474" t="n">
-        <v>133283</v>
+        <v>164089</v>
       </c>
       <c r="C474" t="s">
         <v>3767</v>
@@ -45859,7 +45859,7 @@
         <v>40024</v>
       </c>
       <c r="B475" t="n">
-        <v>133284</v>
+        <v>164090</v>
       </c>
       <c r="C475" t="s">
         <v>3775</v>
@@ -45920,7 +45920,7 @@
         <v>40024</v>
       </c>
       <c r="B476" t="n">
-        <v>133285</v>
+        <v>164091</v>
       </c>
       <c r="C476" t="s">
         <v>3781</v>
@@ -45995,7 +45995,7 @@
         <v>40024</v>
       </c>
       <c r="B477" t="n">
-        <v>133286</v>
+        <v>164092</v>
       </c>
       <c r="C477" t="s">
         <v>3791</v>
@@ -46145,7 +46145,7 @@
         <v>40024</v>
       </c>
       <c r="B479" t="n">
-        <v>133287</v>
+        <v>164093</v>
       </c>
       <c r="C479" t="s">
         <v>3807</v>
@@ -46220,7 +46220,7 @@
         <v>40024</v>
       </c>
       <c r="B480" t="n">
-        <v>133288</v>
+        <v>164094</v>
       </c>
       <c r="C480" t="s">
         <v>3817</v>
@@ -46295,7 +46295,7 @@
         <v>40024</v>
       </c>
       <c r="B481" t="n">
-        <v>133289</v>
+        <v>164095</v>
       </c>
       <c r="C481" t="s">
         <v>3824</v>
@@ -46370,7 +46370,7 @@
         <v>40024</v>
       </c>
       <c r="B482" t="n">
-        <v>133290</v>
+        <v>164096</v>
       </c>
       <c r="C482" t="s">
         <v>3834</v>
@@ -46441,7 +46441,7 @@
         <v>40024</v>
       </c>
       <c r="B483" t="n">
-        <v>133291</v>
+        <v>164097</v>
       </c>
       <c r="C483" t="s">
         <v>3842</v>
@@ -46512,7 +46512,7 @@
         <v>40024</v>
       </c>
       <c r="B484" t="n">
-        <v>133292</v>
+        <v>164098</v>
       </c>
       <c r="C484" t="s">
         <v>3848</v>
@@ -46583,7 +46583,7 @@
         <v>40024</v>
       </c>
       <c r="B485" t="n">
-        <v>133293</v>
+        <v>164099</v>
       </c>
       <c r="C485" t="s">
         <v>3854</v>
@@ -46654,7 +46654,7 @@
         <v>40024</v>
       </c>
       <c r="B486" t="n">
-        <v>133294</v>
+        <v>164100</v>
       </c>
       <c r="C486" t="s">
         <v>3861</v>
@@ -46725,7 +46725,7 @@
         <v>40024</v>
       </c>
       <c r="B487" t="n">
-        <v>133295</v>
+        <v>164101</v>
       </c>
       <c r="C487" t="s">
         <v>3868</v>
@@ -46784,7 +46784,7 @@
         <v>40024</v>
       </c>
       <c r="B488" t="n">
-        <v>133296</v>
+        <v>164102</v>
       </c>
       <c r="C488" t="s">
         <v>3874</v>
@@ -46926,7 +46926,7 @@
         <v>40024</v>
       </c>
       <c r="B490" t="n">
-        <v>133297</v>
+        <v>164103</v>
       </c>
       <c r="C490" t="s">
         <v>3887</v>
@@ -46995,7 +46995,7 @@
         <v>40024</v>
       </c>
       <c r="B491" t="n">
-        <v>133298</v>
+        <v>164104</v>
       </c>
       <c r="C491" t="s">
         <v>3894</v>
@@ -47066,7 +47066,7 @@
         <v>40024</v>
       </c>
       <c r="B492" t="n">
-        <v>133299</v>
+        <v>164105</v>
       </c>
       <c r="C492" t="s">
         <v>3902</v>
@@ -47133,7 +47133,7 @@
         <v>40024</v>
       </c>
       <c r="B493" t="n">
-        <v>133300</v>
+        <v>164106</v>
       </c>
       <c r="C493" t="s">
         <v>3909</v>
@@ -47190,7 +47190,7 @@
         <v>40024</v>
       </c>
       <c r="B494" t="n">
-        <v>133301</v>
+        <v>164107</v>
       </c>
       <c r="C494" t="s">
         <v>3916</v>
@@ -47261,7 +47261,7 @@
         <v>40024</v>
       </c>
       <c r="B495" t="n">
-        <v>133302</v>
+        <v>164108</v>
       </c>
       <c r="C495" t="s">
         <v>3924</v>
@@ -47330,7 +47330,7 @@
         <v>40024</v>
       </c>
       <c r="B496" t="n">
-        <v>133303</v>
+        <v>164109</v>
       </c>
       <c r="C496" t="s">
         <v>3932</v>
@@ -47401,7 +47401,7 @@
         <v>40024</v>
       </c>
       <c r="B497" t="n">
-        <v>133056</v>
+        <v>133094</v>
       </c>
       <c r="C497" t="s">
         <v>1351</v>
@@ -47472,7 +47472,7 @@
         <v>40024</v>
       </c>
       <c r="B498" t="n">
-        <v>133304</v>
+        <v>164110</v>
       </c>
       <c r="C498" t="s">
         <v>3944</v>
@@ -47543,7 +47543,7 @@
         <v>40024</v>
       </c>
       <c r="B499" t="n">
-        <v>133305</v>
+        <v>164111</v>
       </c>
       <c r="C499" t="s">
         <v>3951</v>
@@ -47614,7 +47614,7 @@
         <v>40024</v>
       </c>
       <c r="B500" t="n">
-        <v>133306</v>
+        <v>164112</v>
       </c>
       <c r="C500" t="s">
         <v>3957</v>
@@ -47685,7 +47685,7 @@
         <v>40024</v>
       </c>
       <c r="B501" t="n">
-        <v>133307</v>
+        <v>164113</v>
       </c>
       <c r="C501" t="s">
         <v>3965</v>
@@ -47756,7 +47756,7 @@
         <v>40024</v>
       </c>
       <c r="B502" t="n">
-        <v>133308</v>
+        <v>164114</v>
       </c>
       <c r="C502" t="s">
         <v>3973</v>
@@ -47821,7 +47821,7 @@
         <v>40024</v>
       </c>
       <c r="B503" t="n">
-        <v>133309</v>
+        <v>164115</v>
       </c>
       <c r="C503" t="s">
         <v>3980</v>
@@ -47955,7 +47955,7 @@
         <v>40024</v>
       </c>
       <c r="B505" t="n">
-        <v>133310</v>
+        <v>164116</v>
       </c>
       <c r="C505" t="s">
         <v>3994</v>
@@ -48024,7 +48024,7 @@
         <v>40024</v>
       </c>
       <c r="B506" t="n">
-        <v>133311</v>
+        <v>164117</v>
       </c>
       <c r="C506" t="s">
         <v>4002</v>
@@ -48215,7 +48215,7 @@
         <v>40024</v>
       </c>
       <c r="B509" t="n">
-        <v>133312</v>
+        <v>164118</v>
       </c>
       <c r="C509" t="s">
         <v>4021</v>
